--- a/MYTRED/R_calc_Mytred_2020/Data/Mytred_Growth_Winter_2021.xlsx
+++ b/MYTRED/R_calc_Mytred_2020/Data/Mytred_Growth_Winter_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Winter installeation" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="68">
   <si>
     <t>Order</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Checked</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Type2</t>
   </si>
   <si>
     <t>Cage_ID</t>
@@ -201,6 +201,9 @@
     <t>40_H3</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>E_alive</t>
   </si>
   <si>
@@ -232,9 +235,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -283,20 +286,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -312,24 +308,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,9 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +353,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -367,7 +369,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -390,6 +392,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -406,14 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,13 +451,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +535,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,55 +571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,67 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,15 +647,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -663,31 +657,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,22 +690,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,148 +745,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,10 +1189,10 @@
   </sheetPr>
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -29624,8 +29627,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -29635,19 +29638,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -29655,7 +29658,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -29675,7 +29678,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -29695,7 +29698,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -29715,7 +29718,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -29735,7 +29738,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>34</v>
@@ -29755,7 +29758,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -29775,7 +29778,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>46</v>
@@ -29795,7 +29798,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>28</v>
@@ -29815,7 +29818,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -29835,7 +29838,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>13</v>
@@ -29855,7 +29858,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>21</v>
@@ -29875,7 +29878,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -29895,7 +29898,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1">
         <v>32</v>
@@ -29915,7 +29918,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1">
         <v>36</v>
@@ -29935,7 +29938,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1">
         <v>23</v>
@@ -29955,7 +29958,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
         <v>22</v>
@@ -29975,7 +29978,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1">
         <v>19</v>
@@ -29995,7 +29998,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -30015,7 +30018,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
@@ -30035,7 +30038,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
@@ -30055,7 +30058,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -30075,7 +30078,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1">
         <v>18</v>
@@ -30095,7 +30098,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1">
         <v>17</v>
@@ -30115,7 +30118,7 @@
         <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1">
         <v>14</v>
